--- a/LAMIS-NMRS/Templates/LabTests.xlsx
+++ b/LAMIS-NMRS/Templates/LabTests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvalentine\Documents\GitHub\LAMIS-NMRS\LAMIS-NMRS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvalentine\Documents\GitHub\emr-migration\LAMIS-NMRS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDBEBFCB-3E53-4F65-A5CD-8568730B61C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A28C1C-DCFD-48C2-807D-9A5A70816813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{C263F36E-F265-4F9F-8A2F-6D58F12F4010}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{C263F36E-F265-4F9F-8A2F-6D58F12F4010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>LABTEST_ID</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Stool microscopy</t>
+  </si>
+  <si>
+    <t>MINIMUM_VALUE</t>
+  </si>
+  <si>
+    <t>MAXIMUM_VALUE</t>
+  </si>
+  <si>
+    <t>CONCEPTBOOLEAN</t>
   </si>
 </sst>
 </file>
@@ -600,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1E3A45-0695-4109-95FA-2ED51779828F}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -613,14 +622,17 @@
     <col min="3" max="3" width="17.3671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.68359375" customWidth="1"/>
     <col min="7" max="7" width="20.26171875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.83984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.68359375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,10 +663,17 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -670,10 +689,7 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>5497</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>730</v>
       </c>
       <c r="H2" s="2"/>
@@ -681,10 +697,17 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" s="2">
+        <v>165748</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -707,10 +730,14 @@
       <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="2">
+        <v>165732</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -737,10 +764,14 @@
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="4">
+        <v>165733</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -767,10 +798,17 @@
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="2">
+        <v>165734</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -797,10 +835,17 @@
       <c r="J6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="2">
+        <v>165749</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -827,10 +872,17 @@
       <c r="J7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="2">
+        <v>165735</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -857,10 +909,17 @@
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="2">
+        <v>165736</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -883,10 +942,12 @@
       <c r="J9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>165921</v>
+      </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -909,10 +970,14 @@
       <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="1">
+        <v>165737</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -935,10 +1000,14 @@
       <c r="J11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="2">
+        <v>165754</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -961,10 +1030,14 @@
       <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="2">
+        <v>165759</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -987,10 +1060,14 @@
       <c r="J13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="2">
+        <v>165756</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1013,10 +1090,14 @@
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="2">
+        <v>165745</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1039,10 +1120,14 @@
       <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="2">
+        <v>165757</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1065,8 +1150,12 @@
       <c r="J16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="4">
+        <v>165740</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
@@ -1091,7 +1180,9 @@
       <c r="J17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>165765</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1117,7 +1208,9 @@
       <c r="J18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>165742</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1221,8 +1314,12 @@
       <c r="J22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="2">
+        <v>165758</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
@@ -1247,7 +1344,6 @@
       <c r="J23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1273,8 +1369,12 @@
       <c r="J24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="K24" s="2">
+        <v>165760</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
@@ -1299,8 +1399,12 @@
       <c r="J25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="2">
+        <v>165744</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
@@ -1325,8 +1429,12 @@
       <c r="J26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="2">
+        <v>165761</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
@@ -1351,8 +1459,12 @@
       <c r="J27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="2">
+        <v>165763</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
@@ -1381,7 +1493,9 @@
       <c r="J28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>165755</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1441,7 +1555,9 @@
       <c r="J30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>165764</v>
+      </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1523,7 +1639,9 @@
       <c r="J33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>165739</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1549,7 +1667,9 @@
       <c r="J34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>165741</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1575,7 +1695,9 @@
       <c r="J35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>165762</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1635,7 +1757,9 @@
       <c r="J37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <v>165738</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1670,5 +1794,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>